--- a/book/ch4-spreadsheets/res/advanced_examples-1.xlsx
+++ b/book/ch4-spreadsheets/res/advanced_examples-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\lltc\computer-apps-pub\source\book\ch4-spreadsheets\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\libraries\Documents\GitHub\computer-apps-primer\book\ch4-spreadsheets\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38614DDE-8F2D-4349-8869-148DB587738E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4516ED5B-1672-4BA9-A8B5-9CA6BA81A3FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IF" sheetId="6" r:id="rId1"/>
@@ -21,20 +21,23 @@
     <sheet name="Data Table" sheetId="4" r:id="rId6"/>
     <sheet name="Home Loan" sheetId="7" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="488">
   <si>
     <t>YOUR NAME GOES HERE</t>
   </si>
@@ -1462,101 +1465,6 @@
     <t>Unit Cost:</t>
   </si>
   <si>
-    <t>Sales Goals</t>
-  </si>
-  <si>
-    <t>Current Sales</t>
-  </si>
-  <si>
-    <t>Desired Sales</t>
-  </si>
-  <si>
-    <t>Total Units Sold:</t>
-  </si>
-  <si>
-    <t>Cost per Unit</t>
-  </si>
-  <si>
-    <t>Total Revenue:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Directions:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. How many more units would need to be sold in order to see a Total Revenue of $140,000
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF7F7F7F"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. How much would you have to raise the current price of a unit to see the same revenue.
-Enter your answers in the two cells beneath here. Use the above sheet however you wish.</t>
-    </r>
-  </si>
-  <si>
-    <t>ITECH CORP</t>
-  </si>
-  <si>
     <t>Home Loan Calculator</t>
   </si>
   <si>
@@ -1588,9 +1496,6 @@
   </si>
   <si>
     <t>What grade does this student need to get on Test 3 in order to get an 80% in the class?</t>
-  </si>
-  <si>
-    <t>Answers:</t>
   </si>
   <si>
     <t>Reg</t>
@@ -1613,7 +1518,7 @@
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1711,15 +1616,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1795,7 +1691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -2104,21 +2000,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -2183,11 +2064,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2301,44 +2182,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="31" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="9" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="33" xfId="11"/>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="32" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="32" xfId="10"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="32" xfId="12"/>
+    <xf numFmtId="8" fontId="13" fillId="8" borderId="32" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="34" xfId="11"/>
-    <xf numFmtId="9" fontId="14" fillId="8" borderId="33" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="33" xfId="10"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="12"/>
-    <xf numFmtId="8" fontId="14" fillId="8" borderId="33" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="9" borderId="32" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="15" fillId="9" borderId="32" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="15" fillId="9" borderId="32" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2357,16 +2218,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="5"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="16" fillId="9" borderId="33" xfId="12" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="16" fillId="9" borderId="33" xfId="12" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="16" fillId="9" borderId="33" xfId="12" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="20% - Accent4" xfId="9" builtinId="42"/>
@@ -2404,6 +2271,9 @@
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2424,9 +2294,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="5" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
@@ -2442,35 +2309,14 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IF"/>
-      <sheetName val="SUMIF()"/>
-      <sheetName val="What-If"/>
-      <sheetName val="Home Loan"/>
-      <sheetName val="functions_start"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{672FC81B-68C6-4D08-9D50-07B2F1C2121A}" name="Table13" displayName="Table13" ref="A5:D34" totalsRowCount="1">
   <autoFilter ref="A5:D33" xr:uid="{A68DD29E-5D2E-4F92-ADF3-F36C4FA28AC1}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{363BEDA2-50F9-476C-B64F-20052680C173}" name="Sale #"/>
     <tableColumn id="2" xr3:uid="{3CE262E8-78EF-48EB-A481-7F24085A102F}" name="Seller" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{08BBDA55-BE19-4631-BDA0-E1A35C650C8B}" name="Units Sold" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{4C2E721D-ED8C-4BD0-A970-E1B1B3197AD5}" name="Order Total" dataDxfId="2" totalsRowDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="3" xr3:uid="{08BBDA55-BE19-4631-BDA0-E1A35C650C8B}" name="Units Sold" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4C2E721D-ED8C-4BD0-A970-E1B1B3197AD5}" name="Order Total" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>Table13[[#This Row],[Units Sold]]*$G$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2788,9 +2634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A009218-EBA2-4005-B818-2D02F30B2BFA}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
@@ -2802,7 +2648,7 @@
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1">
+    <row r="1" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>73</v>
       </c>
@@ -2828,7 +2674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="48" t="s">
         <v>80</v>
       </c>
@@ -2852,7 +2698,7 @@
       </c>
       <c r="H2" s="27"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="52" t="s">
         <v>85</v>
       </c>
@@ -2874,9 +2720,9 @@
       <c r="G3" s="55">
         <v>42</v>
       </c>
-      <c r="H3" s="74"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5">
+      <c r="H3" s="71"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>90</v>
       </c>
@@ -2898,13 +2744,13 @@
       <c r="G4" s="59">
         <v>20</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="J4" s="89" t="s">
-        <v>491</v>
-      </c>
-      <c r="K4" s="90"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.5">
+      <c r="H4" s="71"/>
+      <c r="J4" s="85" t="s">
+        <v>483</v>
+      </c>
+      <c r="K4" s="86"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
         <v>95</v>
       </c>
@@ -2926,11 +2772,11 @@
       <c r="G5" s="55">
         <v>25</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="92"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5">
+      <c r="H5" s="71"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>100</v>
       </c>
@@ -2952,11 +2798,11 @@
       <c r="G6" s="59">
         <v>50</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="92"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5">
+      <c r="H6" s="71"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="52" t="s">
         <v>105</v>
       </c>
@@ -2978,11 +2824,11 @@
       <c r="G7" s="55">
         <v>79</v>
       </c>
-      <c r="H7" s="74"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="94"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.5">
+      <c r="H7" s="71"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="90"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>110</v>
       </c>
@@ -3004,9 +2850,9 @@
       <c r="G8" s="59">
         <v>82</v>
       </c>
-      <c r="H8" s="74"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
         <v>115</v>
       </c>
@@ -3028,9 +2874,9 @@
       <c r="G9" s="55">
         <v>20</v>
       </c>
-      <c r="H9" s="74"/>
-    </row>
-    <row r="10" spans="1:11" ht="16.5">
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>120</v>
       </c>
@@ -3052,9 +2898,9 @@
       <c r="G10" s="59">
         <v>5</v>
       </c>
-      <c r="H10" s="74"/>
-    </row>
-    <row r="11" spans="1:11" ht="16.5">
+      <c r="H10" s="71"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="52" t="s">
         <v>125</v>
       </c>
@@ -3076,9 +2922,9 @@
       <c r="G11" s="55">
         <v>44</v>
       </c>
-      <c r="H11" s="74"/>
-    </row>
-    <row r="12" spans="1:11" ht="16.5">
+      <c r="H11" s="71"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>130</v>
       </c>
@@ -3100,9 +2946,9 @@
       <c r="G12" s="59">
         <v>30</v>
       </c>
-      <c r="H12" s="74"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5">
+      <c r="H12" s="71"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>135</v>
       </c>
@@ -3124,9 +2970,9 @@
       <c r="G13" s="55">
         <v>76</v>
       </c>
-      <c r="H13" s="74"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5">
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="56" t="s">
         <v>139</v>
       </c>
@@ -3148,9 +2994,9 @@
       <c r="G14" s="59">
         <v>35</v>
       </c>
-      <c r="H14" s="74"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5">
+      <c r="H14" s="71"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="52" t="s">
         <v>143</v>
       </c>
@@ -3172,9 +3018,9 @@
       <c r="G15" s="55">
         <v>41</v>
       </c>
-      <c r="H15" s="74"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5">
+      <c r="H15" s="71"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>147</v>
       </c>
@@ -3196,9 +3042,9 @@
       <c r="G16" s="59">
         <v>64</v>
       </c>
-      <c r="H16" s="74"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5">
+      <c r="H16" s="71"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="52" t="s">
         <v>151</v>
       </c>
@@ -3220,9 +3066,9 @@
       <c r="G17" s="55">
         <v>45</v>
       </c>
-      <c r="H17" s="74"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5">
+      <c r="H17" s="71"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>154</v>
       </c>
@@ -3244,9 +3090,9 @@
       <c r="G18" s="59">
         <v>19</v>
       </c>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5">
+      <c r="H18" s="71"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="52" t="s">
         <v>159</v>
       </c>
@@ -3268,9 +3114,9 @@
       <c r="G19" s="55">
         <v>36</v>
       </c>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5">
+      <c r="H19" s="71"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>163</v>
       </c>
@@ -3292,9 +3138,9 @@
       <c r="G20" s="59">
         <v>90</v>
       </c>
-      <c r="H20" s="74"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5">
+      <c r="H20" s="71"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="52" t="s">
         <v>168</v>
       </c>
@@ -3316,9 +3162,9 @@
       <c r="G21" s="55">
         <v>82</v>
       </c>
-      <c r="H21" s="74"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5">
+      <c r="H21" s="71"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="60" t="s">
         <v>173</v>
       </c>
@@ -3340,9 +3186,9 @@
       <c r="G22" s="59">
         <v>67</v>
       </c>
-      <c r="H22" s="74"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5">
+      <c r="H22" s="71"/>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="62" t="s">
         <v>178</v>
       </c>
@@ -3364,9 +3210,9 @@
       <c r="G23" s="55">
         <v>47</v>
       </c>
-      <c r="H23" s="74"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5">
+      <c r="H23" s="71"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="60" t="s">
         <v>182</v>
       </c>
@@ -3388,9 +3234,9 @@
       <c r="G24" s="59">
         <v>21</v>
       </c>
-      <c r="H24" s="74"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5">
+      <c r="H24" s="71"/>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="62" t="s">
         <v>187</v>
       </c>
@@ -3412,9 +3258,9 @@
       <c r="G25" s="55">
         <v>79</v>
       </c>
-      <c r="H25" s="74"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5">
+      <c r="H25" s="71"/>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
         <v>191</v>
       </c>
@@ -3436,9 +3282,9 @@
       <c r="G26" s="59">
         <v>52</v>
       </c>
-      <c r="H26" s="74"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5">
+      <c r="H26" s="71"/>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="62" t="s">
         <v>195</v>
       </c>
@@ -3460,9 +3306,9 @@
       <c r="G27" s="55">
         <v>84</v>
       </c>
-      <c r="H27" s="74"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5">
+      <c r="H27" s="71"/>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
         <v>198</v>
       </c>
@@ -3484,9 +3330,9 @@
       <c r="G28" s="59">
         <v>73</v>
       </c>
-      <c r="H28" s="74"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5">
+      <c r="H28" s="71"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="62" t="s">
         <v>203</v>
       </c>
@@ -3508,9 +3354,9 @@
       <c r="G29" s="55">
         <v>24</v>
       </c>
-      <c r="H29" s="74"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5">
+      <c r="H29" s="71"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
         <v>208</v>
       </c>
@@ -3532,9 +3378,9 @@
       <c r="G30" s="59">
         <v>81</v>
       </c>
-      <c r="H30" s="74"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5">
+      <c r="H30" s="71"/>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="62" t="s">
         <v>212</v>
       </c>
@@ -3556,9 +3402,9 @@
       <c r="G31" s="55">
         <v>62</v>
       </c>
-      <c r="H31" s="74"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5">
+      <c r="H31" s="71"/>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="60" t="s">
         <v>216</v>
       </c>
@@ -3580,9 +3426,9 @@
       <c r="G32" s="59">
         <v>47</v>
       </c>
-      <c r="H32" s="74"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5">
+      <c r="H32" s="71"/>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
         <v>221</v>
       </c>
@@ -3604,9 +3450,9 @@
       <c r="G33" s="55">
         <v>86</v>
       </c>
-      <c r="H33" s="74"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5">
+      <c r="H33" s="71"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="60" t="s">
         <v>226</v>
       </c>
@@ -3628,9 +3474,9 @@
       <c r="G34" s="59">
         <v>76</v>
       </c>
-      <c r="H34" s="74"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5">
+      <c r="H34" s="71"/>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="62" t="s">
         <v>230</v>
       </c>
@@ -3652,9 +3498,9 @@
       <c r="G35" s="55">
         <v>99</v>
       </c>
-      <c r="H35" s="74"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5">
+      <c r="H35" s="71"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="60" t="s">
         <v>235</v>
       </c>
@@ -3676,9 +3522,9 @@
       <c r="G36" s="59">
         <v>49</v>
       </c>
-      <c r="H36" s="74"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.5">
+      <c r="H36" s="71"/>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="62" t="s">
         <v>239</v>
       </c>
@@ -3700,9 +3546,9 @@
       <c r="G37" s="55">
         <v>55</v>
       </c>
-      <c r="H37" s="74"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5">
+      <c r="H37" s="71"/>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="60" t="s">
         <v>243</v>
       </c>
@@ -3724,9 +3570,9 @@
       <c r="G38" s="59">
         <v>38</v>
       </c>
-      <c r="H38" s="74"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.5">
+      <c r="H38" s="71"/>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="62" t="s">
         <v>248</v>
       </c>
@@ -3748,9 +3594,9 @@
       <c r="G39" s="55">
         <v>65</v>
       </c>
-      <c r="H39" s="74"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.5">
+      <c r="H39" s="71"/>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="60" t="s">
         <v>252</v>
       </c>
@@ -3772,9 +3618,9 @@
       <c r="G40" s="59">
         <v>67</v>
       </c>
-      <c r="H40" s="74"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.5">
+      <c r="H40" s="71"/>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="62" t="s">
         <v>256</v>
       </c>
@@ -3796,9 +3642,9 @@
       <c r="G41" s="55">
         <v>73</v>
       </c>
-      <c r="H41" s="74"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.5">
+      <c r="H41" s="71"/>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="60" t="s">
         <v>261</v>
       </c>
@@ -3820,9 +3666,9 @@
       <c r="G42" s="59">
         <v>29</v>
       </c>
-      <c r="H42" s="74"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.5">
+      <c r="H42" s="71"/>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="62" t="s">
         <v>266</v>
       </c>
@@ -3844,9 +3690,9 @@
       <c r="G43" s="55">
         <v>85</v>
       </c>
-      <c r="H43" s="74"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.5">
+      <c r="H43" s="71"/>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="60" t="s">
         <v>271</v>
       </c>
@@ -3868,9 +3714,9 @@
       <c r="G44" s="59">
         <v>95</v>
       </c>
-      <c r="H44" s="74"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5">
+      <c r="H44" s="71"/>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="62" t="s">
         <v>275</v>
       </c>
@@ -3892,9 +3738,9 @@
       <c r="G45" s="55">
         <v>70</v>
       </c>
-      <c r="H45" s="74"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5">
+      <c r="H45" s="71"/>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="60" t="s">
         <v>278</v>
       </c>
@@ -3916,9 +3762,9 @@
       <c r="G46" s="59">
         <v>83</v>
       </c>
-      <c r="H46" s="74"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5">
+      <c r="H46" s="71"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="62" t="s">
         <v>282</v>
       </c>
@@ -3940,9 +3786,9 @@
       <c r="G47" s="55">
         <v>78</v>
       </c>
-      <c r="H47" s="74"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5">
+      <c r="H47" s="71"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="60" t="s">
         <v>286</v>
       </c>
@@ -3964,9 +3810,9 @@
       <c r="G48" s="59">
         <v>35</v>
       </c>
-      <c r="H48" s="74"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.5">
+      <c r="H48" s="71"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="62" t="s">
         <v>291</v>
       </c>
@@ -3988,9 +3834,9 @@
       <c r="G49" s="55">
         <v>54</v>
       </c>
-      <c r="H49" s="74"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5">
+      <c r="H49" s="71"/>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="60" t="s">
         <v>294</v>
       </c>
@@ -4012,9 +3858,9 @@
       <c r="G50" s="59">
         <v>74</v>
       </c>
-      <c r="H50" s="74"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5">
+      <c r="H50" s="71"/>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="62" t="s">
         <v>299</v>
       </c>
@@ -4036,9 +3882,9 @@
       <c r="G51" s="55">
         <v>86</v>
       </c>
-      <c r="H51" s="74"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5">
+      <c r="H51" s="71"/>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="60" t="s">
         <v>302</v>
       </c>
@@ -4060,9 +3906,9 @@
       <c r="G52" s="59">
         <v>22</v>
       </c>
-      <c r="H52" s="74"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.5">
+      <c r="H52" s="71"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="62" t="s">
         <v>306</v>
       </c>
@@ -4084,9 +3930,9 @@
       <c r="G53" s="55">
         <v>76</v>
       </c>
-      <c r="H53" s="74"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.5">
+      <c r="H53" s="71"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="60" t="s">
         <v>310</v>
       </c>
@@ -4108,9 +3954,9 @@
       <c r="G54" s="59">
         <v>86</v>
       </c>
-      <c r="H54" s="74"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5">
+      <c r="H54" s="71"/>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="62" t="s">
         <v>315</v>
       </c>
@@ -4132,9 +3978,9 @@
       <c r="G55" s="55">
         <v>71</v>
       </c>
-      <c r="H55" s="74"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5">
+      <c r="H55" s="71"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="60" t="s">
         <v>319</v>
       </c>
@@ -4156,9 +4002,9 @@
       <c r="G56" s="59">
         <v>37</v>
       </c>
-      <c r="H56" s="74"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5">
+      <c r="H56" s="71"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="62" t="s">
         <v>323</v>
       </c>
@@ -4180,9 +4026,9 @@
       <c r="G57" s="55">
         <v>65</v>
       </c>
-      <c r="H57" s="74"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5">
+      <c r="H57" s="71"/>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="60" t="s">
         <v>327</v>
       </c>
@@ -4204,9 +4050,9 @@
       <c r="G58" s="59">
         <v>97</v>
       </c>
-      <c r="H58" s="74"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5">
+      <c r="H58" s="71"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="62" t="s">
         <v>332</v>
       </c>
@@ -4228,9 +4074,9 @@
       <c r="G59" s="55">
         <v>68</v>
       </c>
-      <c r="H59" s="74"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.5">
+      <c r="H59" s="71"/>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="60" t="s">
         <v>337</v>
       </c>
@@ -4252,9 +4098,9 @@
       <c r="G60" s="59">
         <v>51</v>
       </c>
-      <c r="H60" s="74"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5">
+      <c r="H60" s="71"/>
+    </row>
+    <row r="61" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="62" t="s">
         <v>341</v>
       </c>
@@ -4276,9 +4122,9 @@
       <c r="G61" s="55">
         <v>69</v>
       </c>
-      <c r="H61" s="74"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5">
+      <c r="H61" s="71"/>
+    </row>
+    <row r="62" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="60" t="s">
         <v>345</v>
       </c>
@@ -4300,9 +4146,9 @@
       <c r="G62" s="59">
         <v>28</v>
       </c>
-      <c r="H62" s="74"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5">
+      <c r="H62" s="71"/>
+    </row>
+    <row r="63" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="62" t="s">
         <v>349</v>
       </c>
@@ -4324,9 +4170,9 @@
       <c r="G63" s="55">
         <v>86</v>
       </c>
-      <c r="H63" s="74"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.5">
+      <c r="H63" s="71"/>
+    </row>
+    <row r="64" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="60" t="s">
         <v>353</v>
       </c>
@@ -4348,9 +4194,9 @@
       <c r="G64" s="59">
         <v>53</v>
       </c>
-      <c r="H64" s="74"/>
-    </row>
-    <row r="65" spans="1:8" ht="16.5">
+      <c r="H64" s="71"/>
+    </row>
+    <row r="65" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="62" t="s">
         <v>357</v>
       </c>
@@ -4372,9 +4218,9 @@
       <c r="G65" s="55">
         <v>90</v>
       </c>
-      <c r="H65" s="74"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.5">
+      <c r="H65" s="71"/>
+    </row>
+    <row r="66" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="60" t="s">
         <v>360</v>
       </c>
@@ -4396,9 +4242,9 @@
       <c r="G66" s="59">
         <v>74</v>
       </c>
-      <c r="H66" s="74"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5">
+      <c r="H66" s="71"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="62" t="s">
         <v>364</v>
       </c>
@@ -4420,9 +4266,9 @@
       <c r="G67" s="55">
         <v>24</v>
       </c>
-      <c r="H67" s="74"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5">
+      <c r="H67" s="71"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="60" t="s">
         <v>369</v>
       </c>
@@ -4444,9 +4290,9 @@
       <c r="G68" s="59">
         <v>64</v>
       </c>
-      <c r="H68" s="74"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5">
+      <c r="H68" s="71"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="62" t="s">
         <v>373</v>
       </c>
@@ -4468,9 +4314,9 @@
       <c r="G69" s="55">
         <v>62</v>
       </c>
-      <c r="H69" s="74"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5">
+      <c r="H69" s="71"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="60" t="s">
         <v>377</v>
       </c>
@@ -4492,9 +4338,9 @@
       <c r="G70" s="59">
         <v>26</v>
       </c>
-      <c r="H70" s="74"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.5">
+      <c r="H70" s="71"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="62" t="s">
         <v>125</v>
       </c>
@@ -4516,9 +4362,9 @@
       <c r="G71" s="55">
         <v>51</v>
       </c>
-      <c r="H71" s="74"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.5">
+      <c r="H71" s="71"/>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="60" t="s">
         <v>105</v>
       </c>
@@ -4540,9 +4386,9 @@
       <c r="G72" s="59">
         <v>20</v>
       </c>
-      <c r="H72" s="74"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.5">
+      <c r="H72" s="71"/>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="62" t="s">
         <v>143</v>
       </c>
@@ -4564,9 +4410,9 @@
       <c r="G73" s="55">
         <v>40</v>
       </c>
-      <c r="H73" s="74"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.5">
+      <c r="H73" s="71"/>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="60" t="s">
         <v>115</v>
       </c>
@@ -4588,9 +4434,9 @@
       <c r="G74" s="59">
         <v>57</v>
       </c>
-      <c r="H74" s="74"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.5">
+      <c r="H74" s="71"/>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="62" t="s">
         <v>154</v>
       </c>
@@ -4612,9 +4458,9 @@
       <c r="G75" s="55">
         <v>86</v>
       </c>
-      <c r="H75" s="74"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5">
+      <c r="H75" s="71"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="60" t="s">
         <v>168</v>
       </c>
@@ -4636,9 +4482,9 @@
       <c r="G76" s="59">
         <v>58</v>
       </c>
-      <c r="H76" s="74"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5">
+      <c r="H76" s="71"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A77" s="62" t="s">
         <v>130</v>
       </c>
@@ -4660,9 +4506,9 @@
       <c r="G77" s="55">
         <v>25</v>
       </c>
-      <c r="H77" s="74"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.5">
+      <c r="H77" s="71"/>
+    </row>
+    <row r="78" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A78" s="60" t="s">
         <v>100</v>
       </c>
@@ -4684,9 +4530,9 @@
       <c r="G78" s="59">
         <v>61</v>
       </c>
-      <c r="H78" s="74"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.5">
+      <c r="H78" s="71"/>
+    </row>
+    <row r="79" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A79" s="62" t="s">
         <v>163</v>
       </c>
@@ -4708,9 +4554,9 @@
       <c r="G79" s="55">
         <v>24</v>
       </c>
-      <c r="H79" s="74"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.5">
+      <c r="H79" s="71"/>
+    </row>
+    <row r="80" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A80" s="60" t="s">
         <v>95</v>
       </c>
@@ -4732,9 +4578,9 @@
       <c r="G80" s="59">
         <v>38</v>
       </c>
-      <c r="H80" s="74"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5">
+      <c r="H80" s="71"/>
+    </row>
+    <row r="81" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A81" s="62" t="s">
         <v>85</v>
       </c>
@@ -4756,9 +4602,9 @@
       <c r="G81" s="55">
         <v>78</v>
       </c>
-      <c r="H81" s="74"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5">
+      <c r="H81" s="71"/>
+    </row>
+    <row r="82" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="60" t="s">
         <v>90</v>
       </c>
@@ -4780,9 +4626,9 @@
       <c r="G82" s="59">
         <v>75</v>
       </c>
-      <c r="H82" s="74"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5">
+      <c r="H82" s="71"/>
+    </row>
+    <row r="83" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A83" s="62" t="s">
         <v>159</v>
       </c>
@@ -4804,9 +4650,9 @@
       <c r="G83" s="55">
         <v>71</v>
       </c>
-      <c r="H83" s="74"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5">
+      <c r="H83" s="71"/>
+    </row>
+    <row r="84" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A84" s="60" t="s">
         <v>151</v>
       </c>
@@ -4828,9 +4674,9 @@
       <c r="G84" s="59">
         <v>77</v>
       </c>
-      <c r="H84" s="74"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5">
+      <c r="H84" s="71"/>
+    </row>
+    <row r="85" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" s="62" t="s">
         <v>80</v>
       </c>
@@ -4852,9 +4698,9 @@
       <c r="G85" s="55">
         <v>83</v>
       </c>
-      <c r="H85" s="74"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5">
+      <c r="H85" s="71"/>
+    </row>
+    <row r="86" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A86" s="60" t="s">
         <v>120</v>
       </c>
@@ -4876,9 +4722,9 @@
       <c r="G86" s="59">
         <v>42</v>
       </c>
-      <c r="H86" s="74"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5">
+      <c r="H86" s="71"/>
+    </row>
+    <row r="87" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A87" s="62" t="s">
         <v>135</v>
       </c>
@@ -4900,9 +4746,9 @@
       <c r="G87" s="55">
         <v>21</v>
       </c>
-      <c r="H87" s="74"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5">
+      <c r="H87" s="71"/>
+    </row>
+    <row r="88" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A88" s="60" t="s">
         <v>147</v>
       </c>
@@ -4924,9 +4770,9 @@
       <c r="G88" s="59">
         <v>35</v>
       </c>
-      <c r="H88" s="74"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5">
+      <c r="H88" s="71"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="62" t="s">
         <v>110</v>
       </c>
@@ -4948,9 +4794,9 @@
       <c r="G89" s="55">
         <v>22</v>
       </c>
-      <c r="H89" s="74"/>
-    </row>
-    <row r="90" spans="1:8" ht="16.5">
+      <c r="H89" s="71"/>
+    </row>
+    <row r="90" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A90" s="60" t="s">
         <v>139</v>
       </c>
@@ -4972,9 +4818,9 @@
       <c r="G90" s="59">
         <v>45</v>
       </c>
-      <c r="H90" s="74"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.5">
+      <c r="H90" s="71"/>
+    </row>
+    <row r="91" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A91" s="62" t="s">
         <v>401</v>
       </c>
@@ -4996,9 +4842,9 @@
       <c r="G91" s="55">
         <v>57</v>
       </c>
-      <c r="H91" s="74"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5">
+      <c r="H91" s="71"/>
+    </row>
+    <row r="92" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A92" s="60" t="s">
         <v>406</v>
       </c>
@@ -5020,9 +4866,9 @@
       <c r="G92" s="59">
         <v>85</v>
       </c>
-      <c r="H92" s="74"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5">
+      <c r="H92" s="71"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A93" s="62" t="s">
         <v>410</v>
       </c>
@@ -5044,9 +4890,9 @@
       <c r="G93" s="55">
         <v>81</v>
       </c>
-      <c r="H93" s="74"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5">
+      <c r="H93" s="71"/>
+    </row>
+    <row r="94" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A94" s="60" t="s">
         <v>414</v>
       </c>
@@ -5068,9 +4914,9 @@
       <c r="G94" s="59">
         <v>30</v>
       </c>
-      <c r="H94" s="74"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.5">
+      <c r="H94" s="71"/>
+    </row>
+    <row r="95" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A95" s="62" t="s">
         <v>418</v>
       </c>
@@ -5092,9 +4938,9 @@
       <c r="G95" s="55">
         <v>45</v>
       </c>
-      <c r="H95" s="74"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5">
+      <c r="H95" s="71"/>
+    </row>
+    <row r="96" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="60" t="s">
         <v>422</v>
       </c>
@@ -5116,9 +4962,9 @@
       <c r="G96" s="59">
         <v>85</v>
       </c>
-      <c r="H96" s="74"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5">
+      <c r="H96" s="71"/>
+    </row>
+    <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A97" s="62" t="s">
         <v>425</v>
       </c>
@@ -5140,9 +4986,9 @@
       <c r="G97" s="55">
         <v>86</v>
       </c>
-      <c r="H97" s="74"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5">
+      <c r="H97" s="71"/>
+    </row>
+    <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A98" s="60" t="s">
         <v>430</v>
       </c>
@@ -5164,9 +5010,9 @@
       <c r="G98" s="59">
         <v>61</v>
       </c>
-      <c r="H98" s="74"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5">
+      <c r="H98" s="71"/>
+    </row>
+    <row r="99" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A99" s="62" t="s">
         <v>434</v>
       </c>
@@ -5188,9 +5034,9 @@
       <c r="G99" s="55">
         <v>63</v>
       </c>
-      <c r="H99" s="74"/>
-    </row>
-    <row r="100" spans="1:8" ht="16.5">
+      <c r="H99" s="71"/>
+    </row>
+    <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A100" s="60" t="s">
         <v>439</v>
       </c>
@@ -5212,9 +5058,9 @@
       <c r="G100" s="59">
         <v>32</v>
       </c>
-      <c r="H100" s="74"/>
-    </row>
-    <row r="101" spans="1:8" ht="16.5">
+      <c r="H100" s="71"/>
+    </row>
+    <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A101" s="62" t="s">
         <v>443</v>
       </c>
@@ -5236,9 +5082,9 @@
       <c r="G101" s="55">
         <v>87</v>
       </c>
-      <c r="H101" s="74"/>
-    </row>
-    <row r="102" spans="1:8" ht="16.5">
+      <c r="H101" s="71"/>
+    </row>
+    <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A102" s="60" t="s">
         <v>448</v>
       </c>
@@ -5260,9 +5106,9 @@
       <c r="G102" s="59">
         <v>52</v>
       </c>
-      <c r="H102" s="74"/>
-    </row>
-    <row r="103" spans="1:8" ht="16.5">
+      <c r="H102" s="71"/>
+    </row>
+    <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A103" s="62" t="s">
         <v>453</v>
       </c>
@@ -5284,9 +5130,9 @@
       <c r="G103" s="55">
         <v>36</v>
       </c>
-      <c r="H103" s="74"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5">
+      <c r="H103" s="71"/>
+    </row>
+    <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A104" s="60" t="s">
         <v>456</v>
       </c>
@@ -5308,9 +5154,9 @@
       <c r="G104" s="59">
         <v>75</v>
       </c>
-      <c r="H104" s="74"/>
-    </row>
-    <row r="105" spans="1:8" ht="16.5">
+      <c r="H104" s="71"/>
+    </row>
+    <row r="105" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A105" s="64" t="s">
         <v>460</v>
       </c>
@@ -5332,7 +5178,7 @@
       <c r="G105" s="67">
         <v>80</v>
       </c>
-      <c r="H105" s="74"/>
+      <c r="H105" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5350,7 +5196,7 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="27" bestFit="1" customWidth="1"/>
@@ -5359,21 +5205,21 @@
     <col min="5" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F3" s="69" t="s">
         <v>474</v>
       </c>
@@ -5381,15 +5227,15 @@
         <v>32.49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A4" s="81" t="s">
+    <row r="4" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="92" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickTop="1">
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>465</v>
       </c>
@@ -5403,7 +5249,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>1</v>
       </c>
@@ -5418,7 +5264,7 @@
         <v>3346.4700000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>2</v>
       </c>
@@ -5433,7 +5279,7 @@
         <v>4418.6400000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>3</v>
       </c>
@@ -5448,12 +5294,12 @@
         <v>3443.94</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="27">
         <v>4</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C9" s="27">
         <v>102</v>
@@ -5463,7 +5309,7 @@
         <v>3313.98</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>5</v>
       </c>
@@ -5478,7 +5324,7 @@
         <v>2729.1600000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>6</v>
       </c>
@@ -5493,7 +5339,7 @@
         <v>2826.63</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
         <v>7</v>
       </c>
@@ -5508,7 +5354,7 @@
         <v>4548.6000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <v>8</v>
       </c>
@@ -5523,7 +5369,7 @@
         <v>4223.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
         <v>9</v>
       </c>
@@ -5538,12 +5384,12 @@
         <v>4483.62</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
         <v>10</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C15" s="27">
         <v>91</v>
@@ -5553,7 +5399,7 @@
         <v>2956.59</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>11</v>
       </c>
@@ -5568,7 +5414,7 @@
         <v>3443.94</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>12</v>
       </c>
@@ -5583,7 +5429,7 @@
         <v>3086.55</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>13</v>
       </c>
@@ -5598,7 +5444,7 @@
         <v>2924.1000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>14</v>
       </c>
@@ -5613,7 +5459,7 @@
         <v>3151.53</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>15</v>
       </c>
@@ -5628,7 +5474,7 @@
         <v>2891.61</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>16</v>
       </c>
@@ -5643,7 +5489,7 @@
         <v>3606.3900000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>17</v>
       </c>
@@ -5658,7 +5504,7 @@
         <v>2859.1200000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>18</v>
       </c>
@@ -5673,7 +5519,7 @@
         <v>3508.92</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>19</v>
       </c>
@@ -5688,7 +5534,7 @@
         <v>3021.57</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>20</v>
       </c>
@@ -5706,7 +5552,7 @@
       <c r="M25" s="44"/>
       <c r="N25" s="44"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>21</v>
       </c>
@@ -5721,7 +5567,7 @@
         <v>4483.62</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>22</v>
       </c>
@@ -5736,12 +5582,12 @@
         <v>3671.3700000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>23</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C28" s="27">
         <v>99</v>
@@ -5751,7 +5597,7 @@
         <v>3216.51</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>24</v>
       </c>
@@ -5766,7 +5612,7 @@
         <v>3541.4100000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>25</v>
       </c>
@@ -5781,7 +5627,7 @@
         <v>3184.02</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="27">
         <v>26</v>
       </c>
@@ -5796,7 +5642,7 @@
         <v>4451.13</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="27">
         <v>27</v>
       </c>
@@ -5811,7 +5657,7 @@
         <v>4451.13</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="27">
         <v>28</v>
       </c>
@@ -5826,8 +5672,8 @@
         <v>3119.04</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="C34" s="95"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="77"/>
       <c r="D34" s="68"/>
     </row>
   </sheetData>
@@ -5844,13 +5690,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -5858,13 +5704,13 @@
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="81"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1">
+      <c r="B1" s="92"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -5872,56 +5718,56 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
       <c r="B3">
         <v>70</v>
       </c>
-      <c r="D3" s="82" t="s">
-        <v>493</v>
-      </c>
-      <c r="E3" s="82"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="93" t="s">
+        <v>485</v>
+      </c>
+      <c r="E3" s="93"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>57</v>
       </c>
       <c r="B4">
         <v>70</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
       <c r="B5">
         <v>72</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
       <c r="B6">
         <v>60</v>
       </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -5930,161 +5776,196 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="23.25">
-      <c r="A11" s="83" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.25" thickBot="1">
-      <c r="A12" s="81" t="s">
-        <v>475</v>
-      </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-    </row>
-    <row r="13" spans="1:5" ht="21" thickTop="1" thickBot="1">
-      <c r="A13" s="84" t="s">
-        <v>476</v>
-      </c>
-      <c r="B13" s="85"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="84" t="s">
-        <v>477</v>
-      </c>
-      <c r="E13" s="85"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="B14" s="72">
-        <f>SUM(Table13[Order Total])</f>
-        <v>99256.95</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
-        <v>478</v>
-      </c>
-      <c r="E14" s="72"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="B15" s="73">
-        <f>SUMIF!G3</f>
-        <v>32.49</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27" t="s">
-        <v>479</v>
-      </c>
-      <c r="E15" s="73"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="B16" s="73">
-        <f>SUM([1]!Table1[Order Total])</f>
-        <v>99256.95</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27" t="s">
-        <v>480</v>
-      </c>
-      <c r="E16" s="73"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="82" t="s">
-        <v>481</v>
-      </c>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="34" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="96">
-        <v>1</v>
-      </c>
-      <c r="G20" s="77"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="96">
-        <v>2</v>
-      </c>
-      <c r="G21" s="77"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="84"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A19:E25"/>
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D3:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6100,7 +5981,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -6111,7 +5992,7 @@
     <col min="12" max="12" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6127,14 +6008,14 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -6143,14 +6024,14 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -6161,10 +6042,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <f ca="1">TODAY()</f>
-        <v>43350</v>
+        <v>43788</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -6178,11 +6059,11 @@
       <c r="K4" s="5"/>
       <c r="L4" s="6">
         <f ca="1">TODAY()</f>
-        <v>43350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1"/>
-    <row r="6" spans="1:12" ht="44.25" thickBot="1">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:12" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -6220,7 +6101,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -6244,7 +6125,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6268,7 +6149,7 @@
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6292,7 +6173,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -6316,7 +6197,7 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -6340,7 +6221,7 @@
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -6364,7 +6245,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -6388,7 +6269,7 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -6412,7 +6293,7 @@
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -6436,7 +6317,7 @@
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -6460,7 +6341,7 @@
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -6484,7 +6365,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -6508,7 +6389,7 @@
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -6532,7 +6413,7 @@
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -6556,7 +6437,7 @@
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -6580,7 +6461,7 @@
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
@@ -6594,7 +6475,7 @@
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C24" s="12" t="s">
         <v>35</v>
       </c>
@@ -6604,24 +6485,24 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1">
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
-    </row>
-    <row r="26" spans="1:12">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="78"/>
+      <c r="K25" s="78"/>
+      <c r="L25" s="78"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B26" s="15"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="17"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>37</v>
       </c>
@@ -6629,7 +6510,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>38</v>
       </c>
@@ -6637,7 +6518,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>39</v>
       </c>
@@ -6645,7 +6526,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>40</v>
       </c>
@@ -6672,14 +6553,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>41</v>
       </c>
@@ -6692,18 +6573,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="98"/>
-      <c r="D2" s="99">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="79"/>
+      <c r="D2" s="80">
         <f ca="1">TODAY()</f>
-        <v>43350</v>
-      </c>
-      <c r="E2" s="99">
+        <v>43788</v>
+      </c>
+      <c r="E2" s="80">
         <f ca="1">TODAY()</f>
-        <v>43350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1">
+        <v>43788</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>44</v>
       </c>
@@ -6718,30 +6599,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>495</v>
-      </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-    </row>
-    <row r="6" spans="1:5">
+        <v>486</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>496</v>
-      </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-    </row>
-    <row r="7" spans="1:5">
+        <v>487</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="23"/>
       <c r="D7" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="98"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="E7" s="79"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
         <v>49</v>
       </c>
@@ -6752,35 +6633,35 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="98"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="79"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="98"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="79"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="98"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="79"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="98"/>
+      <c r="E15" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6795,7 +6676,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -6806,21 +6687,21 @@
     <col min="9" max="9" width="12.7109375" style="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-    </row>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:9" ht="18.75">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="88"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="31"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>63</v>
       </c>
@@ -6829,7 +6710,7 @@
       </c>
       <c r="C5" s="28"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>64</v>
       </c>
@@ -6837,7 +6718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>65</v>
       </c>
@@ -6846,10 +6727,10 @@
       </c>
       <c r="C7" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>66</v>
       </c>
@@ -6859,12 +6740,12 @@
       </c>
       <c r="C9" s="29"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="34" t="s">
         <v>67</v>
       </c>
@@ -6875,7 +6756,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="40" t="s">
         <v>70</v>
       </c>
@@ -6898,7 +6779,7 @@
         <v>-1342.0540575303476</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="36">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -6912,7 +6793,7 @@
       </c>
       <c r="I16" s="32"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="36">
         <v>0.04</v>
       </c>
@@ -6926,7 +6807,7 @@
       </c>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="36">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -6940,7 +6821,7 @@
       </c>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="36">
         <v>0.05</v>
       </c>
@@ -6954,7 +6835,7 @@
       </c>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="36">
         <v>5.5E-2</v>
       </c>
@@ -6968,7 +6849,7 @@
       </c>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
         <v>0.06</v>
       </c>
@@ -6982,7 +6863,7 @@
       </c>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="37">
         <v>6.5000000000000002E-2</v>
       </c>
@@ -6996,12 +6877,12 @@
       </c>
       <c r="I22" s="33"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="29">
         <f>B9</f>
         <v>-1342.0540575303476</v>
@@ -7025,81 +6906,81 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="36">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
       <c r="H28" s="32"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="36">
         <v>0.04</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
       <c r="H29" s="32"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="36">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
       <c r="H30" s="32"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="36">
         <v>0.05</v>
       </c>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
       <c r="H31" s="32"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="36">
         <v>5.5E-2</v>
       </c>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
       <c r="H32" s="32"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="36">
         <v>0.06</v>
       </c>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
       <c r="H33" s="32"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="37">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="33"/>
     </row>
   </sheetData>
@@ -7116,71 +6997,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A114E6D6-2052-4AC1-B4DF-5F86AF5FEB02}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" thickBot="1">
-      <c r="A1" s="81" t="s">
-        <v>483</v>
-      </c>
-      <c r="B1" s="81"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickTop="1">
+    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="92" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="92"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="75" t="s">
-        <v>484</v>
-      </c>
-      <c r="B3" s="76"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="75" t="s">
-        <v>485</v>
-      </c>
-      <c r="B4" s="77"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="75" t="s">
-        <v>486</v>
-      </c>
-      <c r="B5" s="77"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="75" t="s">
-        <v>487</v>
-      </c>
-      <c r="B6" s="77"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="75" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="77"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="75" t="s">
-        <v>489</v>
-      </c>
-      <c r="B8" s="77"/>
-    </row>
-    <row r="9" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="73"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="74"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="B5" s="74"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="B6" s="74"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
+        <v>480</v>
+      </c>
+      <c r="B7" s="74"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="B8" s="74"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="43"/>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="78" t="s">
-        <v>490</v>
-      </c>
-      <c r="B10" s="79"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>482</v>
+      </c>
+      <c r="B10" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="1">
